--- a/Shield Shield/Bill of Materials/sshield-bom-v1-131006.xlsx
+++ b/Shield Shield/Bill of Materials/sshield-bom-v1-131006.xlsx
@@ -1506,7 +1506,7 @@
   <dimension ref="B1:K56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1547,7 +1547,7 @@
       <c r="C3" s="7"/>
       <c r="D3" s="8">
         <f ca="1">TODAY()</f>
-        <v>41553</v>
+        <v>41554</v>
       </c>
     </row>
     <row r="4" spans="2:11">
